--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Baker.Fall.121019-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Baker.Fall.121019-2.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1941,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2739,12 +2739,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2823,12 +2823,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3033,12 +3033,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3369,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3537,12 +3537,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4125,12 +4125,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4297,12 +4297,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4549,12 +4549,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4679,12 +4679,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4847,12 +4847,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5015,12 +5015,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5183,12 +5183,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5309,12 +5309,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5393,12 +5393,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6023,12 +6023,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6107,12 +6107,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6195,12 +6195,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6279,12 +6279,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6657,12 +6657,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7119,12 +7119,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7875,12 +7875,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7917,12 +7917,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8083,12 +8083,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8125,12 +8125,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8755,12 +8755,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9091,12 +9091,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9721,12 +9721,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9763,12 +9763,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10145,12 +10145,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10271,12 +10271,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10313,12 +10313,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10439,12 +10439,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10737,12 +10737,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11539,12 +11539,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11623,12 +11623,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11921,12 +11921,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11963,12 +11963,12 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12299,12 +12299,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12845,12 +12845,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13811,12 +13811,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13895,12 +13895,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
